--- a/data/publications/orcid/export_to_manual/Wyższa_Szkoła_Ekonomii_i_Innowacji_w_Lublinie_titles.xlsx
+++ b/data/publications/orcid/export_to_manual/Wyższa_Szkoła_Ekonomii_i_Innowacji_w_Lublinie_titles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,553 +436,600 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>orcid</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>journal</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>Monika Baryła-Matejczuk</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-2321-9999</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Wrażliwość środowiskowa a inteligencje wielorakie uczniów szkół podstawowych. Badania z wykorzystaniem polskiej wersji skali Highly Sensitive Child (HSC)</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Annales Universitatis Mariae Curie-Skłodowska, sectio J – Paedagogia-Psychologia</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Monika_Baryła-Matejczuk_2</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>Bożydar Kaczmarek</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-8683-1128</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Brain Plasticity and the Idea of the Functional System</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Lurian Journal</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Bożydar_Kaczmarek_1</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>8</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>Bożydar Kaczmarek</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-8683-1128</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>The power of self-deception: psychological reaction to the covid-19 threat</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Acta Neuropsychologica</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bożydar_Kaczmarek_2</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>10</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Bożydar Kaczmarek</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-8683-1128</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Mediating Effect of Emotional and Social Competences on Interrelations Between Gender, Age and the Broad Autism Phenotype</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>JOURNAL OF AUTISM AND DEVELOPMENTAL DISORDERS</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Bożydar_Kaczmarek_4</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>14</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Bożydar Kaczmarek</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-8683-1128</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>From the guest editor</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Acta Neuropsychologica</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Bożydar_Kaczmarek_8</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>15</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Bożydar Kaczmarek</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-8683-1128</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Third Mode of Thinking</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>New Educational Review</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Bożydar_Kaczmarek_9</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>16</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Bożydar Kaczmarek</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-8683-1128</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Mathematical reasoning and the form of a task</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Horyzonty Psychologii</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Bożydar_Kaczmarek_10</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>17</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Bożydar Kaczmarek</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-8683-1128</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Neuropsychological aspects of perception of emotionally loaded and neutral advertising illustrations</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Acta Neuropsychologica</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Bożydar_Kaczmarek_11</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>19</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Bożydar Kaczmarek</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-8683-1128</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Relationship between procrastination and a field of study in the Polish university students</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>New Educational Review</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Bożydar_Kaczmarek_13</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>21</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>Bożydar Kaczmarek</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-8683-1128</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Relationship between Procrastination and a University Subject in Polish University Students</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>New Educational Review</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Bożydar_Kaczmarek_15</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>32</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>Wiesław Piotr Poleszak</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-5253-0789</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Samoocena młodzieży korzystającej z treści erotycznych w Internecie</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Annales Universitatis Mariae Curie-Skłodowska. Sectio J, Paedagogia-Psychologia</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Wiesław_Piotr_Poleszak_5</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>34</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>Wiesław Piotr Poleszak</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-5253-0789</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Zastosowanie ComPM jako narzędzia do do pomiaru kompetencji menedżera projektów</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Organizacja i Kierowanie</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Wiesław_Piotr_Poleszak_7</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>40</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>Marcin Stencel</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-5807-9717</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>Neuropsychological aspects of perception of emotionally loaded and neutral advertising illustrations</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Acta Neuropsychologica</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Marcin_Stencel_3</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>43</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>Wioletta Kornelia Tuszyńska-Bogucka</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-7101-5267</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Psychological consequences of hospital isolationduring the COVID-19 pandemic - research on the sample of polishfirefighting academy students</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>2021-06-28</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Current Psychology</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Wioletta_Kornelia_Tuszyńska-Bogucka_3</t>
         </is>
